--- a/src/Source/MSIE_datasets/r201_25_customers.xlsx
+++ b/src/Source/MSIE_datasets/r201_25_customers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rl-meta-test\src\Source\MSIE_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D4AA0D-1C64-45F5-BDCD-CADCF75E784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87142CC-2C15-4B9B-B9E2-DDF7CC6D1FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9D680BA-E21C-4B61-9EDC-C55FDA476EA1}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{D9D680BA-E21C-4B61-9EDC-C55FDA476EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>fleet_size</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFAE6FC-624C-45E6-909C-B1FAD9C1EA5E}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2553,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483F6D42-4AA3-4744-8916-F60071B522A9}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,8 +2720,8 @@
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="D6">
+        <v>19</v>
       </c>
       <c r="E6">
         <v>678</v>
